--- a/data/coefficient/107.xlsx
+++ b/data/coefficient/107.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>start_time</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>congestion_coefficient</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1239,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R57"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D37" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1249,7 +1252,7 @@
     <col min="14" max="18" width="14.1111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,8 +1307,11 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>45413.4868055556</v>
       </c>
@@ -1366,8 +1372,11 @@
         <f>(0.33*N2+0.33*P2+0.33*O2)/L2</f>
         <v>0.374055192990594</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>45413.4902777778</v>
       </c>
@@ -1428,8 +1437,11 @@
         <f t="shared" ref="R3:R34" si="4">(0.33*N3+0.33*P3+0.33*O3)/L3</f>
         <v>0.287516049564206</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>45413.49375</v>
       </c>
@@ -1490,8 +1502,11 @@
         <f t="shared" si="4"/>
         <v>0.366623415703801</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>45413.4972222222</v>
       </c>
@@ -1552,8 +1567,11 @@
         <f t="shared" si="4"/>
         <v>0.364604617095775</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>45413.5006944444</v>
       </c>
@@ -1614,8 +1632,11 @@
         <f t="shared" si="4"/>
         <v>0.351048216156269</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>45413.5041666667</v>
       </c>
@@ -1676,8 +1697,11 @@
         <f t="shared" si="4"/>
         <v>0.371419814101648</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>45413.5076388889</v>
       </c>
@@ -1738,8 +1762,11 @@
         <f t="shared" si="4"/>
         <v>0.353786377999624</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>45413.5111111111</v>
       </c>
@@ -1800,8 +1827,11 @@
         <f t="shared" si="4"/>
         <v>0.338722417092723</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>45413.5145833333</v>
       </c>
@@ -1862,8 +1892,11 @@
         <f t="shared" si="4"/>
         <v>0.381031792870429</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>45413.5180555556</v>
       </c>
@@ -1924,8 +1957,11 @@
         <f t="shared" si="4"/>
         <v>0.356148777659034</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>45413.5215277778</v>
       </c>
@@ -1986,8 +2022,11 @@
         <f t="shared" si="4"/>
         <v>0.3575842644029</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>45413.525</v>
       </c>
@@ -2048,8 +2087,11 @@
         <f t="shared" si="4"/>
         <v>0.342220113603344</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>45413.5284722222</v>
       </c>
@@ -2110,8 +2152,11 @@
         <f t="shared" si="4"/>
         <v>0.218455492366254</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>45413.5319444444</v>
       </c>
@@ -2172,8 +2217,11 @@
         <f t="shared" si="4"/>
         <v>0.24272858598814</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>45413.5354166667</v>
       </c>
@@ -2234,8 +2282,11 @@
         <f t="shared" si="4"/>
         <v>0.210488145742775</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>45413.5388888889</v>
       </c>
@@ -2296,8 +2347,11 @@
         <f t="shared" si="4"/>
         <v>0.24147098334041</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>45413.5423611111</v>
       </c>
@@ -2358,8 +2412,11 @@
         <f t="shared" si="4"/>
         <v>0.160731269564831</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>45413.5458333333</v>
       </c>
@@ -2420,8 +2477,11 @@
         <f t="shared" si="4"/>
         <v>0.0813395378510177</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>45413.5493055556</v>
       </c>
@@ -2482,8 +2542,11 @@
         <f t="shared" si="4"/>
         <v>0.175880180601509</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>45413.5527777778</v>
       </c>
@@ -2544,8 +2607,11 @@
         <f t="shared" si="4"/>
         <v>0.172059381620998</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>45413.55625</v>
       </c>
@@ -2606,8 +2672,11 @@
         <f t="shared" si="4"/>
         <v>0.082557837997241</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>45413.5597222222</v>
       </c>
@@ -2668,8 +2737,11 @@
         <f t="shared" si="4"/>
         <v>0.129690328809728</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>45413.5631944444</v>
       </c>
@@ -2730,8 +2802,11 @@
         <f t="shared" si="4"/>
         <v>0.161019645530996</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>45413.5666666667</v>
       </c>
@@ -2792,8 +2867,11 @@
         <f t="shared" si="4"/>
         <v>0.0986004119259563</v>
       </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1">
         <v>45413.5701388889</v>
       </c>
@@ -2854,8 +2932,11 @@
         <f t="shared" si="4"/>
         <v>0.152961570241832</v>
       </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27" s="1">
         <v>45413.5736111111</v>
       </c>
@@ -2916,8 +2997,11 @@
         <f t="shared" si="4"/>
         <v>0.135744925628658</v>
       </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="1">
         <v>45413.5770833333</v>
       </c>
@@ -2978,8 +3062,11 @@
         <f t="shared" si="4"/>
         <v>0.217499425939576</v>
       </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="1">
         <v>45413.5805555556</v>
       </c>
@@ -3040,8 +3127,11 @@
         <f t="shared" si="4"/>
         <v>0.0778424226526165</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="1">
         <v>45413.5840277778</v>
       </c>
@@ -3102,8 +3192,11 @@
         <f t="shared" si="4"/>
         <v>0.0364075514777347</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="1">
         <v>45413.5875</v>
       </c>
@@ -3164,8 +3257,11 @@
         <f t="shared" si="4"/>
         <v>0.073049877136612</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
       <c r="A32" s="1">
         <v>45413.5909722222</v>
       </c>
@@ -3226,8 +3322,11 @@
         <f t="shared" si="4"/>
         <v>0.0281616217329063</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
       <c r="A33" s="1">
         <v>45413.5944444444</v>
       </c>
@@ -3288,8 +3387,11 @@
         <f t="shared" si="4"/>
         <v>0.0664037808604423</v>
       </c>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
       <c r="A34" s="1">
         <v>45413.5979166667</v>
       </c>
@@ -3350,8 +3452,11 @@
         <f t="shared" si="4"/>
         <v>0.0658325778022565</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="1">
         <v>45413.6013888889</v>
       </c>
@@ -3412,8 +3517,11 @@
         <f t="shared" ref="R35:R57" si="10">(0.33*N35+0.33*P35+0.33*O35)/L35</f>
         <v>0.116491930960301</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
       <c r="A36" s="1">
         <v>45413.6048611111</v>
       </c>
@@ -3474,8 +3582,11 @@
         <f t="shared" si="10"/>
         <v>0.105591995106559</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
       <c r="A37" s="1">
         <v>45413.6083333333</v>
       </c>
@@ -3536,8 +3647,11 @@
         <f t="shared" si="10"/>
         <v>0.11362451519455</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
       <c r="A38" s="1">
         <v>45413.6118055556</v>
       </c>
@@ -3598,8 +3712,11 @@
         <f t="shared" si="10"/>
         <v>0.0373888480649827</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
       <c r="A39" s="1">
         <v>45413.6152777778</v>
       </c>
@@ -3660,8 +3777,11 @@
         <f t="shared" si="10"/>
         <v>0.0850303523506437</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1">
         <v>45413.61875</v>
       </c>
@@ -3722,8 +3842,11 @@
         <f t="shared" si="10"/>
         <v>0.0842641315706468</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="1">
         <v>45413.6222222222</v>
       </c>
@@ -3784,8 +3907,11 @@
         <f t="shared" si="10"/>
         <v>0.137089186314226</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
       <c r="A42" s="1">
         <v>45413.6256944444</v>
       </c>
@@ -3846,8 +3972,11 @@
         <f t="shared" si="10"/>
         <v>0.150425910976415</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" s="1">
         <v>45413.6291666667</v>
       </c>
@@ -3908,8 +4037,11 @@
         <f t="shared" si="10"/>
         <v>0.0557396447627943</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" s="1">
         <v>45413.6326388889</v>
       </c>
@@ -3970,8 +4102,11 @@
         <f t="shared" si="10"/>
         <v>0.252639049438901</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
       <c r="A45" s="1">
         <v>45413.6361111111</v>
       </c>
@@ -4032,8 +4167,11 @@
         <f t="shared" si="10"/>
         <v>0.191330538712949</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
       <c r="A46" s="1">
         <v>45413.6395833333</v>
       </c>
@@ -4094,8 +4232,11 @@
         <f t="shared" si="10"/>
         <v>0.134294849571509</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
       <c r="A47" s="1">
         <v>45413.6430555556</v>
       </c>
@@ -4156,8 +4297,11 @@
         <f t="shared" si="10"/>
         <v>0.0754031963363233</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
       <c r="A48" s="1">
         <v>45413.6465277778</v>
       </c>
@@ -4218,8 +4362,11 @@
         <f t="shared" si="10"/>
         <v>0.251742760782015</v>
       </c>
-    </row>
-    <row r="49" spans="1:18">
+      <c r="S48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
       <c r="A49" s="1">
         <v>45413.65</v>
       </c>
@@ -4280,8 +4427,11 @@
         <f t="shared" si="10"/>
         <v>0.039808983357711</v>
       </c>
-    </row>
-    <row r="50" spans="1:18">
+      <c r="S49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
       <c r="A50" s="1">
         <v>45413.6534722222</v>
       </c>
@@ -4342,8 +4492,11 @@
         <f t="shared" si="10"/>
         <v>0.120582734830726</v>
       </c>
-    </row>
-    <row r="51" spans="1:18">
+      <c r="S50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
       <c r="A51" s="1">
         <v>45413.6569444444</v>
       </c>
@@ -4404,8 +4557,11 @@
         <f t="shared" si="10"/>
         <v>0.0759083963938578</v>
       </c>
-    </row>
-    <row r="52" spans="1:18">
+      <c r="S51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
       <c r="A52" s="1">
         <v>45413.6604166667</v>
       </c>
@@ -4466,8 +4622,11 @@
         <f t="shared" si="10"/>
         <v>0.126559184709743</v>
       </c>
-    </row>
-    <row r="53" spans="1:18">
+      <c r="S52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
       <c r="A53" s="1">
         <v>45413.6638888889</v>
       </c>
@@ -4528,8 +4687,11 @@
         <f t="shared" si="10"/>
         <v>0.14924994127489</v>
       </c>
-    </row>
-    <row r="54" spans="1:18">
+      <c r="S53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
       <c r="A54" s="1">
         <v>45413.6673611111</v>
       </c>
@@ -4590,8 +4752,11 @@
         <f t="shared" si="10"/>
         <v>0.0986446802752188</v>
       </c>
-    </row>
-    <row r="55" spans="1:18">
+      <c r="S54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
       <c r="A55" s="1">
         <v>45413.6708333333</v>
       </c>
@@ -4652,8 +4817,11 @@
         <f t="shared" si="10"/>
         <v>0.0971520445780929</v>
       </c>
-    </row>
-    <row r="56" spans="1:18">
+      <c r="S55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
       <c r="A56" s="1">
         <v>45413.6743055556</v>
       </c>
@@ -4714,8 +4882,11 @@
         <f t="shared" si="10"/>
         <v>0.132723069683701</v>
       </c>
-    </row>
-    <row r="57" spans="1:18">
+      <c r="S56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="1">
         <v>45413.6777777778</v>
       </c>
@@ -4775,6 +4946,9 @@
       <c r="R57">
         <f t="shared" si="10"/>
         <v>0.121053132261231</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/coefficient/107.xlsx
+++ b/data/coefficient/107.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>start_time</t>
   </si>
@@ -84,6 +84,12 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>is_spot</t>
+  </si>
+  <si>
+    <t>is_service_area</t>
   </si>
 </sst>
 </file>
@@ -1239,10 +1245,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S57"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D37" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28:U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
@@ -1252,7 +1258,7 @@
     <col min="14" max="18" width="14.1111111111111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,8 +1316,14 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>45413.4868055556</v>
       </c>
@@ -1375,8 +1387,14 @@
       <c r="S2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>45413.4902777778</v>
       </c>
@@ -1440,8 +1458,14 @@
       <c r="S3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>45413.49375</v>
       </c>
@@ -1505,8 +1529,14 @@
       <c r="S4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>45413.4972222222</v>
       </c>
@@ -1570,8 +1600,14 @@
       <c r="S5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>45413.5006944444</v>
       </c>
@@ -1635,8 +1671,14 @@
       <c r="S6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>45413.5041666667</v>
       </c>
@@ -1700,8 +1742,14 @@
       <c r="S7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>45413.5076388889</v>
       </c>
@@ -1765,8 +1813,14 @@
       <c r="S8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>45413.5111111111</v>
       </c>
@@ -1830,8 +1884,14 @@
       <c r="S9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>45413.5145833333</v>
       </c>
@@ -1895,8 +1955,14 @@
       <c r="S10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>45413.5180555556</v>
       </c>
@@ -1960,8 +2026,14 @@
       <c r="S11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>45413.5215277778</v>
       </c>
@@ -2025,8 +2097,14 @@
       <c r="S12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>45413.525</v>
       </c>
@@ -2090,8 +2168,14 @@
       <c r="S13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>45413.5284722222</v>
       </c>
@@ -2155,8 +2239,14 @@
       <c r="S14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>45413.5319444444</v>
       </c>
@@ -2220,8 +2310,14 @@
       <c r="S15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>45413.5354166667</v>
       </c>
@@ -2285,8 +2381,14 @@
       <c r="S16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>45413.5388888889</v>
       </c>
@@ -2350,8 +2452,14 @@
       <c r="S17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>45413.5423611111</v>
       </c>
@@ -2415,8 +2523,14 @@
       <c r="S18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>45413.5458333333</v>
       </c>
@@ -2480,8 +2594,14 @@
       <c r="S19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>45413.5493055556</v>
       </c>
@@ -2545,8 +2665,14 @@
       <c r="S20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>45413.5527777778</v>
       </c>
@@ -2610,8 +2736,14 @@
       <c r="S21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>45413.55625</v>
       </c>
@@ -2675,8 +2807,14 @@
       <c r="S22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>45413.5597222222</v>
       </c>
@@ -2740,8 +2878,14 @@
       <c r="S23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>45413.5631944444</v>
       </c>
@@ -2805,8 +2949,14 @@
       <c r="S24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>45413.5666666667</v>
       </c>
@@ -2870,8 +3020,14 @@
       <c r="S25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>45413.5701388889</v>
       </c>
@@ -2935,8 +3091,14 @@
       <c r="S26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>45413.5736111111</v>
       </c>
@@ -3000,8 +3162,14 @@
       <c r="S27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>45413.5770833333</v>
       </c>
@@ -3065,8 +3233,14 @@
       <c r="S28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>45413.5805555556</v>
       </c>
@@ -3130,8 +3304,14 @@
       <c r="S29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>45413.5840277778</v>
       </c>
@@ -3195,8 +3375,14 @@
       <c r="S30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>45413.5875</v>
       </c>
@@ -3260,8 +3446,14 @@
       <c r="S31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>45413.5909722222</v>
       </c>
@@ -3325,8 +3517,14 @@
       <c r="S32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>45413.5944444444</v>
       </c>
@@ -3390,8 +3588,14 @@
       <c r="S33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>45413.5979166667</v>
       </c>
@@ -3455,8 +3659,14 @@
       <c r="S34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>45413.6013888889</v>
       </c>
@@ -3520,8 +3730,14 @@
       <c r="S35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>45413.6048611111</v>
       </c>
@@ -3585,8 +3801,14 @@
       <c r="S36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>45413.6083333333</v>
       </c>
@@ -3650,8 +3872,14 @@
       <c r="S37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>45413.6118055556</v>
       </c>
@@ -3715,8 +3943,14 @@
       <c r="S38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>45413.6152777778</v>
       </c>
@@ -3780,8 +4014,14 @@
       <c r="S39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>45413.61875</v>
       </c>
@@ -3845,8 +4085,14 @@
       <c r="S40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>45413.6222222222</v>
       </c>
@@ -3910,8 +4156,14 @@
       <c r="S41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>45413.6256944444</v>
       </c>
@@ -3975,8 +4227,14 @@
       <c r="S42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>45413.6291666667</v>
       </c>
@@ -4040,8 +4298,14 @@
       <c r="S43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>45413.6326388889</v>
       </c>
@@ -4105,8 +4369,14 @@
       <c r="S44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>45413.6361111111</v>
       </c>
@@ -4170,8 +4440,14 @@
       <c r="S45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>45413.6395833333</v>
       </c>
@@ -4235,8 +4511,14 @@
       <c r="S46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>45413.6430555556</v>
       </c>
@@ -4300,8 +4582,14 @@
       <c r="S47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>45413.6465277778</v>
       </c>
@@ -4365,8 +4653,14 @@
       <c r="S48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>45413.65</v>
       </c>
@@ -4430,8 +4724,14 @@
       <c r="S49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>45413.6534722222</v>
       </c>
@@ -4495,8 +4795,14 @@
       <c r="S50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>45413.6569444444</v>
       </c>
@@ -4560,8 +4866,14 @@
       <c r="S51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>45413.6604166667</v>
       </c>
@@ -4625,8 +4937,14 @@
       <c r="S52">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>45413.6638888889</v>
       </c>
@@ -4690,8 +5008,14 @@
       <c r="S53">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>45413.6673611111</v>
       </c>
@@ -4755,8 +5079,14 @@
       <c r="S54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>45413.6708333333</v>
       </c>
@@ -4820,8 +5150,14 @@
       <c r="S55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>45413.6743055556</v>
       </c>
@@ -4885,8 +5221,14 @@
       <c r="S56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>45413.6777777778</v>
       </c>
@@ -4949,6 +5291,12 @@
       </c>
       <c r="S57">
         <v>2</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
